--- a/src/main/resources/test_db_direct.xlsx
+++ b/src/main/resources/test_db_direct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26205" windowHeight="9675"/>
+    <workbookView windowWidth="27405" windowHeight="11580"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
   <si>
     <t>id</t>
   </si>
@@ -38,6 +38,9 @@
     <t>description</t>
   </si>
   <si>
+    <t>category</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
@@ -50,49 +53,130 @@
     <t>stock</t>
   </si>
   <si>
+    <t>tags</t>
+  </si>
+  <si>
     <t>brand</t>
   </si>
   <si>
-    <t>category</t>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>weight</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>warrantyinformation</t>
+  </si>
+  <si>
+    <t>shippinginformation</t>
+  </si>
+  <si>
+    <t>availabilitystatus</t>
+  </si>
+  <si>
+    <t>reviews</t>
+  </si>
+  <si>
+    <t>returnpolicy</t>
+  </si>
+  <si>
+    <t>minimumorderquantity</t>
+  </si>
+  <si>
+    <t>createdat</t>
+  </si>
+  <si>
+    <t>updatedat</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+  <si>
+    <t>qrcode</t>
+  </si>
+  <si>
+    <t>images</t>
   </si>
   <si>
     <t>thumbnail</t>
   </si>
   <si>
-    <t>images</t>
-  </si>
-  <si>
-    <t>Infinix INBOOK</t>
-  </si>
-  <si>
-    <t>Infinix Inbook X1 Ci3 10th 8GB 256GB 14 Win10 Grey – 1 Year Warranty</t>
-  </si>
-  <si>
-    <t>Infinix</t>
-  </si>
-  <si>
-    <t>laptops</t>
-  </si>
-  <si>
-    <t>https://cdn.dummyjson.com/product-images/9/thumbnail.jpg</t>
-  </si>
-  <si>
-    <t>https://cdn.dummyjson.com/product-images/9/1.jpg, https://cdn.dummyjson.com/product-images/9/2.png, https://cdn.dummyjson.com/product-images/9/3.png, https://cdn.dummyjson.com/product-images/9/4.jpg, https://cdn.dummyjson.com/product-images/9/thumbnail.jpg</t>
-  </si>
-  <si>
-    <t>HP Pavilion 15-DK1056WM</t>
-  </si>
-  <si>
-    <t>HP Pavilion 15-DK1056WM Gaming Laptop 10th Gen Core i5, 8GB, 256GB SSD, GTX 1650 4GB, Windows 10</t>
-  </si>
-  <si>
-    <t>HP Pavilion</t>
-  </si>
-  <si>
-    <t>https://cdn.dummyjson.com/product-images/10/thumbnail.jpeg</t>
-  </si>
-  <si>
-    <t>https://cdn.dummyjson.com/product-images/10/1.jpg, https://cdn.dummyjson.com/product-images/10/2.jpg, https://cdn.dummyjson.com/product-images/10/3.jpg, https://cdn.dummyjson.com/product-images/10/thumbnail.jpeg</t>
+    <t>Beef Steak</t>
+  </si>
+  <si>
+    <t>High-quality beef steak, great for grilling or cooking to your preferred level of doneness.</t>
+  </si>
+  <si>
+    <t>groceries</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>BWWA2MSO</t>
+  </si>
+  <si>
+    <t>1 month warranty</t>
+  </si>
+  <si>
+    <t>Ships overnight</t>
+  </si>
+  <si>
+    <t>In Stock</t>
+  </si>
+  <si>
+    <t>, ,</t>
+  </si>
+  <si>
+    <t>90 days return policy</t>
+  </si>
+  <si>
+    <t>2024-05-23T08:56:21.620Z</t>
+  </si>
+  <si>
+    <t>https://dummyjson.com/public/qr-code.png</t>
+  </si>
+  <si>
+    <t>https://cdn.dummyjson.com/products/images/groceries/Beef%20Steak/1.png</t>
+  </si>
+  <si>
+    <t>https://cdn.dummyjson.com/products/images/groceries/Beef%20Steak/thumbnail.png</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>Fresh and crisp apples, perfect for snacking or incorporating into various recipes.</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>QTROUV79</t>
+  </si>
+  <si>
+    <t>2 year warranty</t>
+  </si>
+  <si>
+    <t>Ships in 2 weeks</t>
+  </si>
+  <si>
+    <t>60 days return policy</t>
+  </si>
+  <si>
+    <t>https://cdn.dummyjson.com/products/images/groceries/Apple/1.png</t>
+  </si>
+  <si>
+    <t>https://cdn.dummyjson.com/products/images/groceries/Apple/thumbnail.png</t>
   </si>
 </sst>
 </file>
@@ -1245,15 +1329,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:27">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1287,75 +1371,215 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:27">
       <c r="A2">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2">
+        <v>12.99</v>
+      </c>
+      <c r="F2">
+        <v>17.99</v>
+      </c>
+      <c r="G2">
+        <v>2.83</v>
+      </c>
+      <c r="H2">
+        <v>96</v>
+      </c>
+      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2"/>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2">
-        <v>1099</v>
-      </c>
-      <c r="E2">
-        <v>11.83</v>
-      </c>
-      <c r="F2">
-        <v>4.54</v>
-      </c>
-      <c r="G2">
-        <v>96</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="M2">
+        <v>23.35</v>
+      </c>
+      <c r="N2">
+        <v>13.48</v>
+      </c>
+      <c r="O2">
+        <v>26.4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" t="s">
+        <v>36</v>
+      </c>
+      <c r="U2">
+        <v>21</v>
+      </c>
+      <c r="V2" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2">
+        <v>8335515097879</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3">
-        <v>10</v>
-      </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>1099</v>
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
       </c>
       <c r="E3">
-        <v>6.18</v>
+        <v>1.99</v>
       </c>
       <c r="F3">
-        <v>4.43</v>
+        <v>1.97</v>
       </c>
       <c r="G3">
-        <v>89</v>
-      </c>
-      <c r="H3" t="s">
-        <v>19</v>
+        <v>2.96</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="J3"/>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>44</v>
+      </c>
+      <c r="L3">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>8.29</v>
+      </c>
+      <c r="N3">
+        <v>5.58</v>
+      </c>
+      <c r="O3">
+        <v>12.41</v>
+      </c>
+      <c r="P3" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>46</v>
+      </c>
+      <c r="R3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" t="s">
+        <v>47</v>
+      </c>
+      <c r="U3">
+        <v>44</v>
+      </c>
+      <c r="V3" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3">
+        <v>2517819903837</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/test_db_direct.xlsx
+++ b/src/main/resources/test_db_direct.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27405" windowHeight="11580"/>
+    <workbookView windowWidth="28800" windowHeight="12180"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -27,156 +27,333 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="109">
+  <si>
+    <t>availabilitystatus</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>dimensions_depth</t>
+  </si>
+  <si>
+    <t>dimensions_height</t>
+  </si>
+  <si>
+    <t>dimensions_width</t>
+  </si>
+  <si>
+    <t>discountpercentage</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>images_0</t>
+  </si>
+  <si>
+    <t>images_1</t>
+  </si>
+  <si>
+    <t>images_2</t>
+  </si>
+  <si>
+    <t>images_3</t>
+  </si>
+  <si>
+    <t>meta_barcode</t>
+  </si>
+  <si>
+    <t>meta_createdat</t>
+  </si>
+  <si>
+    <t>meta_qrcode</t>
+  </si>
+  <si>
+    <t>meta_updatedat</t>
+  </si>
+  <si>
+    <t>minimumorderquantity</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>returnpolicy</t>
+  </si>
+  <si>
+    <t>reviews_0_comment</t>
+  </si>
+  <si>
+    <t>reviews_0_date</t>
+  </si>
+  <si>
+    <t>reviews_0_rating</t>
+  </si>
+  <si>
+    <t>reviews_0_revieweremail</t>
+  </si>
+  <si>
+    <t>reviews_0_reviewername</t>
+  </si>
+  <si>
+    <t>reviews_1_comment</t>
+  </si>
+  <si>
+    <t>reviews_1_date</t>
+  </si>
+  <si>
+    <t>reviews_1_rating</t>
+  </si>
+  <si>
+    <t>reviews_1_revieweremail</t>
+  </si>
+  <si>
+    <t>reviews_1_reviewername</t>
+  </si>
+  <si>
+    <t>reviews_2_comment</t>
+  </si>
+  <si>
+    <t>reviews_2_date</t>
+  </si>
+  <si>
+    <t>reviews_2_rating</t>
+  </si>
+  <si>
+    <t>reviews_2_revieweremail</t>
+  </si>
+  <si>
+    <t>reviews_2_reviewername</t>
+  </si>
+  <si>
+    <t>shippinginformation</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>tags_0</t>
+  </si>
+  <si>
+    <t>tags_1</t>
+  </si>
+  <si>
+    <t>thumbnail</t>
+  </si>
+  <si>
     <t>title</t>
   </si>
   <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>category</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>discountpercentage</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>sku</t>
+    <t>warrantyinformation</t>
   </si>
   <si>
     <t>weight</t>
   </si>
   <si>
-    <t>width</t>
-  </si>
-  <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>depth</t>
-  </si>
-  <si>
-    <t>warrantyinformation</t>
-  </si>
-  <si>
-    <t>shippinginformation</t>
-  </si>
-  <si>
-    <t>availabilitystatus</t>
-  </si>
-  <si>
-    <t>reviews</t>
-  </si>
-  <si>
-    <t>returnpolicy</t>
-  </si>
-  <si>
-    <t>minimumorderquantity</t>
-  </si>
-  <si>
-    <t>createdat</t>
-  </si>
-  <si>
-    <t>updatedat</t>
-  </si>
-  <si>
-    <t>barcode</t>
-  </si>
-  <si>
-    <t>qrcode</t>
-  </si>
-  <si>
-    <t>images</t>
-  </si>
-  <si>
-    <t>thumbnail</t>
+    <t>In Stock</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>groceries</t>
+  </si>
+  <si>
+    <t>Fresh and crisp apples, perfect for snacking or incorporating into various recipes.</t>
+  </si>
+  <si>
+    <t>12.41</t>
+  </si>
+  <si>
+    <t>5.58</t>
+  </si>
+  <si>
+    <t>8.29</t>
+  </si>
+  <si>
+    <t>1.97</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>https://cdn.dummyjson.com/products/images/groceries/Apple/1.png</t>
+  </si>
+  <si>
+    <t>2517819903837</t>
+  </si>
+  <si>
+    <t>2024-05-23T08:56:21.620Z</t>
+  </si>
+  <si>
+    <t>https://dummyjson.com/public/qr-code.png</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>1.99</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>60 days return policy</t>
+  </si>
+  <si>
+    <t>Great product!</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>logan.lee@x.dummyjson.com</t>
+  </si>
+  <si>
+    <t>Logan Lee</t>
+  </si>
+  <si>
+    <t>elena.long@x.dummyjson.com</t>
+  </si>
+  <si>
+    <t>Elena Long</t>
+  </si>
+  <si>
+    <t>Not as described!</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>grayson.coleman@x.dummyjson.com</t>
+  </si>
+  <si>
+    <t>Grayson Coleman</t>
+  </si>
+  <si>
+    <t>Ships in 2 weeks</t>
+  </si>
+  <si>
+    <t>QTROUV79</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>fruits</t>
+  </si>
+  <si>
+    <t>https://cdn.dummyjson.com/products/images/groceries/Apple/thumbnail.png</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>2 year warranty</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>High-quality beef steak, great for grilling or cooking to your preferred level of doneness.</t>
+  </si>
+  <si>
+    <t>26.4</t>
+  </si>
+  <si>
+    <t>13.48</t>
+  </si>
+  <si>
+    <t>23.35</t>
+  </si>
+  <si>
+    <t>17.99</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>https://cdn.dummyjson.com/products/images/groceries/Beef%20Steak/1.png</t>
+  </si>
+  <si>
+    <t>8335515097879</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>12.99</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>90 days return policy</t>
+  </si>
+  <si>
+    <t>Very pleased!</t>
+  </si>
+  <si>
+    <t>ethan.martinez@x.dummyjson.com</t>
+  </si>
+  <si>
+    <t>Ethan Martinez</t>
+  </si>
+  <si>
+    <t>Disappointing product!</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>owen.fisher@x.dummyjson.com</t>
+  </si>
+  <si>
+    <t>Owen Fisher</t>
+  </si>
+  <si>
+    <t>Very happy with my purchase!</t>
+  </si>
+  <si>
+    <t>scarlett.wright@x.dummyjson.com</t>
+  </si>
+  <si>
+    <t>Scarlett Wright</t>
+  </si>
+  <si>
+    <t>Ships overnight</t>
+  </si>
+  <si>
+    <t>BWWA2MSO</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>meat</t>
+  </si>
+  <si>
+    <t>https://cdn.dummyjson.com/products/images/groceries/Beef%20Steak/thumbnail.png</t>
   </si>
   <si>
     <t>Beef Steak</t>
   </si>
   <si>
-    <t>High-quality beef steak, great for grilling or cooking to your preferred level of doneness.</t>
-  </si>
-  <si>
-    <t>groceries</t>
-  </si>
-  <si>
-    <t>meat</t>
-  </si>
-  <si>
-    <t>BWWA2MSO</t>
-  </si>
-  <si>
     <t>1 month warranty</t>
-  </si>
-  <si>
-    <t>Ships overnight</t>
-  </si>
-  <si>
-    <t>In Stock</t>
-  </si>
-  <si>
-    <t>, ,</t>
-  </si>
-  <si>
-    <t>90 days return policy</t>
-  </si>
-  <si>
-    <t>2024-05-23T08:56:21.620Z</t>
-  </si>
-  <si>
-    <t>https://dummyjson.com/public/qr-code.png</t>
-  </si>
-  <si>
-    <t>https://cdn.dummyjson.com/products/images/groceries/Beef%20Steak/1.png</t>
-  </si>
-  <si>
-    <t>https://cdn.dummyjson.com/products/images/groceries/Beef%20Steak/thumbnail.png</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Fresh and crisp apples, perfect for snacking or incorporating into various recipes.</t>
-  </si>
-  <si>
-    <t>fruits</t>
-  </si>
-  <si>
-    <t>QTROUV79</t>
-  </si>
-  <si>
-    <t>2 year warranty</t>
-  </si>
-  <si>
-    <t>Ships in 2 weeks</t>
-  </si>
-  <si>
-    <t>60 days return policy</t>
-  </si>
-  <si>
-    <t>https://cdn.dummyjson.com/products/images/groceries/Apple/1.png</t>
-  </si>
-  <si>
-    <t>https://cdn.dummyjson.com/products/images/groceries/Apple/thumbnail.png</t>
   </si>
 </sst>
 </file>
@@ -189,10 +366,17 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -662,138 +846,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1329,257 +1516,423 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="A2" sqref="$A2:$XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="15" outlineLevelRow="2"/>
   <sheetData>
-    <row r="1" spans="1:27">
-      <c r="A1" t="s">
+    <row r="1" spans="1:45">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:27">
-      <c r="A2">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2">
-        <v>12.99</v>
-      </c>
-      <c r="F2">
-        <v>17.99</v>
-      </c>
-      <c r="G2">
-        <v>2.83</v>
-      </c>
-      <c r="H2">
+    <row r="2" spans="1:45">
+      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="I2" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2"/>
-      <c r="K2" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2">
-        <v>9</v>
-      </c>
-      <c r="M2">
-        <v>23.35</v>
-      </c>
-      <c r="N2">
-        <v>13.48</v>
-      </c>
-      <c r="O2">
-        <v>26.4</v>
-      </c>
-      <c r="P2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" t="s">
-        <v>36</v>
-      </c>
-      <c r="U2">
-        <v>21</v>
-      </c>
-      <c r="V2" t="s">
-        <v>37</v>
-      </c>
-      <c r="W2" t="s">
-        <v>37</v>
-      </c>
-      <c r="X2">
-        <v>8335515097879</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27">
-      <c r="A3">
-        <v>16</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3">
-        <v>1.99</v>
-      </c>
-      <c r="F3">
-        <v>1.97</v>
-      </c>
-      <c r="G3">
-        <v>2.96</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J3"/>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3">
-        <v>8</v>
-      </c>
-      <c r="M3">
-        <v>8.29</v>
-      </c>
-      <c r="N3">
-        <v>5.58</v>
-      </c>
-      <c r="O3">
-        <v>12.41</v>
-      </c>
-      <c r="P3" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="AD3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S3" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" t="s">
-        <v>47</v>
-      </c>
-      <c r="U3">
-        <v>44</v>
-      </c>
-      <c r="V3" t="s">
-        <v>37</v>
-      </c>
-      <c r="W3" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3">
-        <v>2517819903837</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>49</v>
+      <c r="AP3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
